--- a/clientdata/Goat FPO QR_18112017.xlsx
+++ b/clientdata/Goat FPO QR_18112017.xlsx
@@ -1332,6 +1332,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1353,13 +1360,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1666,7 +1666,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1676,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E278" sqref="E278"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106:C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,10 +1704,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="42" t="s">
         <v>276</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1715,155 +1715,155 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38" t="s">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43" t="s">
         <v>277</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1871,36 +1871,36 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="7" t="s">
         <v>14</v>
       </c>
@@ -1909,142 +1909,142 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="33"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="6" t="s">
         <v>40</v>
       </c>
@@ -2053,43 +2053,43 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
-      <c r="B58" s="39"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="34" t="s">
         <v>287</v>
       </c>
@@ -2098,8 +2098,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
-      <c r="B59" s="37" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="42" t="s">
         <v>279</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2107,282 +2107,282 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
       <c r="C70" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
       <c r="C71" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
       <c r="C73" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
-      <c r="B74" s="38"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
       <c r="C78" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
-      <c r="B79" s="38"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
       <c r="C79" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="38"/>
-      <c r="B80" s="38"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
       <c r="C80" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
       <c r="C81" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
-      <c r="B82" s="38"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
       <c r="C82" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
-      <c r="B83" s="38"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
       <c r="C83" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
-      <c r="B84" s="38"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
       <c r="C84" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
-      <c r="B85" s="38"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
       <c r="C85" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
       <c r="C86" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
       <c r="C87" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="38"/>
-      <c r="B88" s="38"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
       <c r="C88" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
-      <c r="B89" s="38"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
       <c r="C89" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
-      <c r="B90" s="38"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
       <c r="C90" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="38"/>
-      <c r="B91" s="38"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D91" s="35"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="38"/>
-      <c r="B92" s="38"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="38"/>
-      <c r="B93" s="38"/>
+      <c r="A93" s="43"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="38"/>
-      <c r="B94" s="38"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
       <c r="C94" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="38"/>
-      <c r="B95" s="38"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
       <c r="C95" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
-      <c r="B96" s="38"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
       <c r="C96" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
-      <c r="B97" s="38"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="38"/>
-      <c r="B98" s="38"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="38"/>
-      <c r="B99" s="38" t="s">
+      <c r="A99" s="43"/>
+      <c r="B99" s="43" t="s">
         <v>284</v>
       </c>
       <c r="C99" s="19" t="s">
@@ -2390,92 +2390,92 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="38"/>
-      <c r="B100" s="38"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
       <c r="C100" s="20" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="38"/>
-      <c r="B101" s="38"/>
+      <c r="A101" s="43"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="20" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="38"/>
-      <c r="B102" s="38"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
       <c r="C102" s="28" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="38"/>
-      <c r="B103" s="38"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="43"/>
       <c r="C103" s="28" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="38"/>
-      <c r="B104" s="38"/>
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
       <c r="C104" s="28" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="38"/>
-      <c r="B105" s="38"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
       <c r="C105" s="20" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="38"/>
-      <c r="B106" s="38"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
       <c r="C106" s="20" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="38"/>
-      <c r="B107" s="38"/>
+      <c r="A107" s="43"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="20" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="38"/>
-      <c r="B108" s="38"/>
+      <c r="A108" s="43"/>
+      <c r="B108" s="43"/>
       <c r="C108" s="20" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="38"/>
-      <c r="B109" s="38"/>
+      <c r="A109" s="43"/>
+      <c r="B109" s="43"/>
       <c r="C109" s="20" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="38"/>
-      <c r="B110" s="38"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
       <c r="C110" s="20" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="38"/>
-      <c r="B111" s="38"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
       <c r="C111" s="27" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="38"/>
-      <c r="B112" s="37" t="s">
+      <c r="A112" s="43"/>
+      <c r="B112" s="42" t="s">
         <v>65</v>
       </c>
       <c r="C112" s="10" t="s">
@@ -2483,73 +2483,73 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="38"/>
-      <c r="B113" s="38"/>
+      <c r="A113" s="43"/>
+      <c r="B113" s="43"/>
       <c r="C113" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="38"/>
-      <c r="B114" s="38"/>
+      <c r="A114" s="43"/>
+      <c r="B114" s="43"/>
       <c r="C114" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="38"/>
-      <c r="B115" s="38"/>
+      <c r="A115" s="43"/>
+      <c r="B115" s="43"/>
       <c r="C115" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="38"/>
-      <c r="B116" s="38"/>
+      <c r="A116" s="43"/>
+      <c r="B116" s="43"/>
       <c r="C116" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="38"/>
-      <c r="B117" s="38"/>
+      <c r="A117" s="43"/>
+      <c r="B117" s="43"/>
       <c r="C117" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="38"/>
-      <c r="B118" s="38"/>
+      <c r="A118" s="43"/>
+      <c r="B118" s="43"/>
       <c r="C118" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="38"/>
-      <c r="B119" s="38"/>
+      <c r="A119" s="43"/>
+      <c r="B119" s="43"/>
       <c r="C119" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="38"/>
-      <c r="B120" s="38"/>
+      <c r="A120" s="43"/>
+      <c r="B120" s="43"/>
       <c r="C120" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="39"/>
-      <c r="B121" s="39"/>
+      <c r="A121" s="44"/>
+      <c r="B121" s="44"/>
       <c r="C121" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="38" t="s">
+      <c r="A122" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="B122" s="37" t="s">
+      <c r="B122" s="42" t="s">
         <v>285</v>
       </c>
       <c r="C122" s="6" t="s">
@@ -2560,8 +2560,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="38"/>
-      <c r="B123" s="38"/>
+      <c r="A123" s="43"/>
+      <c r="B123" s="43"/>
       <c r="C123" s="3" t="s">
         <v>76</v>
       </c>
@@ -2570,8 +2570,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="38"/>
-      <c r="B124" s="38"/>
+      <c r="A124" s="43"/>
+      <c r="B124" s="43"/>
       <c r="C124" s="3" t="s">
         <v>78</v>
       </c>
@@ -2580,8 +2580,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="38"/>
-      <c r="B125" s="38"/>
+      <c r="A125" s="43"/>
+      <c r="B125" s="43"/>
       <c r="C125" s="3" t="s">
         <v>79</v>
       </c>
@@ -2590,8 +2590,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="38"/>
-      <c r="B126" s="38"/>
+      <c r="A126" s="43"/>
+      <c r="B126" s="43"/>
       <c r="C126" s="3" t="s">
         <v>81</v>
       </c>
@@ -2600,36 +2600,36 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="38"/>
-      <c r="B127" s="38"/>
+      <c r="A127" s="43"/>
+      <c r="B127" s="43"/>
       <c r="C127" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="38"/>
-      <c r="B128" s="38"/>
+      <c r="A128" s="43"/>
+      <c r="B128" s="43"/>
       <c r="C128" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="38"/>
-      <c r="B129" s="38"/>
+      <c r="A129" s="43"/>
+      <c r="B129" s="43"/>
       <c r="C129" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="38"/>
-      <c r="B130" s="38"/>
+      <c r="A130" s="43"/>
+      <c r="B130" s="43"/>
       <c r="C130" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="38"/>
-      <c r="B131" s="39"/>
+      <c r="A131" s="43"/>
+      <c r="B131" s="44"/>
       <c r="C131" s="11" t="s">
         <v>86</v>
       </c>
@@ -2638,8 +2638,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="38"/>
-      <c r="B132" s="38" t="s">
+      <c r="A132" s="43"/>
+      <c r="B132" s="43" t="s">
         <v>180</v>
       </c>
       <c r="C132" s="19" t="s">
@@ -2647,66 +2647,66 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="38"/>
-      <c r="B133" s="38"/>
+      <c r="A133" s="43"/>
+      <c r="B133" s="43"/>
       <c r="C133" s="20" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="38"/>
-      <c r="B134" s="38"/>
+      <c r="A134" s="43"/>
+      <c r="B134" s="43"/>
       <c r="C134" s="20" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="38"/>
-      <c r="B135" s="38"/>
+      <c r="A135" s="43"/>
+      <c r="B135" s="43"/>
       <c r="C135" s="20" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="38"/>
-      <c r="B136" s="38"/>
+      <c r="A136" s="43"/>
+      <c r="B136" s="43"/>
       <c r="C136" s="20" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="38"/>
-      <c r="B137" s="38"/>
+      <c r="A137" s="43"/>
+      <c r="B137" s="43"/>
       <c r="C137" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="38"/>
-      <c r="B138" s="38"/>
+      <c r="A138" s="43"/>
+      <c r="B138" s="43"/>
       <c r="C138" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="38"/>
-      <c r="B139" s="38"/>
+      <c r="A139" s="43"/>
+      <c r="B139" s="43"/>
       <c r="C139" s="20" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="38"/>
-      <c r="B140" s="39"/>
+      <c r="A140" s="43"/>
+      <c r="B140" s="44"/>
       <c r="C140" s="27" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="40" t="s">
+      <c r="A141" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="B141" s="37" t="s">
+      <c r="B141" s="42" t="s">
         <v>281</v>
       </c>
       <c r="C141" s="19" t="s">
@@ -2714,239 +2714,239 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="41"/>
-      <c r="B142" s="38"/>
+      <c r="A142" s="46"/>
+      <c r="B142" s="43"/>
       <c r="C142" s="20" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="41"/>
-      <c r="B143" s="38"/>
+      <c r="A143" s="46"/>
+      <c r="B143" s="43"/>
       <c r="C143" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="41"/>
-      <c r="B144" s="38"/>
+      <c r="A144" s="46"/>
+      <c r="B144" s="43"/>
       <c r="C144" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="41"/>
-      <c r="B145" s="38"/>
+      <c r="A145" s="46"/>
+      <c r="B145" s="43"/>
       <c r="C145" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="41"/>
-      <c r="B146" s="38"/>
+      <c r="A146" s="46"/>
+      <c r="B146" s="43"/>
       <c r="C146" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="41"/>
-      <c r="B147" s="38"/>
+      <c r="A147" s="46"/>
+      <c r="B147" s="43"/>
       <c r="C147" s="21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="41"/>
-      <c r="B148" s="38"/>
+      <c r="A148" s="46"/>
+      <c r="B148" s="43"/>
       <c r="C148" s="21" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="41"/>
-      <c r="B149" s="38"/>
+      <c r="A149" s="46"/>
+      <c r="B149" s="43"/>
       <c r="C149" s="21" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="41"/>
-      <c r="B150" s="38"/>
+      <c r="A150" s="46"/>
+      <c r="B150" s="43"/>
       <c r="C150" s="21" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="41"/>
-      <c r="B151" s="38"/>
+      <c r="A151" s="46"/>
+      <c r="B151" s="43"/>
       <c r="C151" s="21" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="41"/>
-      <c r="B152" s="38"/>
+      <c r="A152" s="46"/>
+      <c r="B152" s="43"/>
       <c r="C152" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="41"/>
-      <c r="B153" s="38"/>
+      <c r="A153" s="46"/>
+      <c r="B153" s="43"/>
       <c r="C153" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="41"/>
-      <c r="B154" s="38"/>
+      <c r="A154" s="46"/>
+      <c r="B154" s="43"/>
       <c r="C154" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="41"/>
-      <c r="B155" s="38"/>
+      <c r="A155" s="46"/>
+      <c r="B155" s="43"/>
       <c r="C155" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="41"/>
-      <c r="B156" s="38"/>
+      <c r="A156" s="46"/>
+      <c r="B156" s="43"/>
       <c r="C156" s="21" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="41"/>
-      <c r="B157" s="38"/>
+      <c r="A157" s="46"/>
+      <c r="B157" s="43"/>
       <c r="C157" s="21" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="41"/>
-      <c r="B158" s="38"/>
+      <c r="A158" s="46"/>
+      <c r="B158" s="43"/>
       <c r="C158" s="21" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="41"/>
-      <c r="B159" s="38"/>
+      <c r="A159" s="46"/>
+      <c r="B159" s="43"/>
       <c r="C159" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="41"/>
-      <c r="B160" s="38"/>
+      <c r="A160" s="46"/>
+      <c r="B160" s="43"/>
       <c r="C160" s="21" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="41"/>
-      <c r="B161" s="38"/>
+      <c r="A161" s="46"/>
+      <c r="B161" s="43"/>
       <c r="C161" s="21" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="41"/>
-      <c r="B162" s="38"/>
+      <c r="A162" s="46"/>
+      <c r="B162" s="43"/>
       <c r="C162" s="21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="41"/>
-      <c r="B163" s="38"/>
+      <c r="A163" s="46"/>
+      <c r="B163" s="43"/>
       <c r="C163" s="21" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="41"/>
-      <c r="B164" s="38"/>
+      <c r="A164" s="46"/>
+      <c r="B164" s="43"/>
       <c r="C164" s="21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="41"/>
-      <c r="B165" s="38"/>
+      <c r="A165" s="46"/>
+      <c r="B165" s="43"/>
       <c r="C165" s="21" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="41"/>
-      <c r="B166" s="38"/>
+      <c r="A166" s="46"/>
+      <c r="B166" s="43"/>
       <c r="C166" s="21" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="41"/>
-      <c r="B167" s="38"/>
+      <c r="A167" s="46"/>
+      <c r="B167" s="43"/>
       <c r="C167" s="21" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="41"/>
-      <c r="B168" s="38"/>
+      <c r="A168" s="46"/>
+      <c r="B168" s="43"/>
       <c r="C168" s="23" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="41"/>
-      <c r="B169" s="38"/>
+      <c r="A169" s="46"/>
+      <c r="B169" s="43"/>
       <c r="C169" s="20" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="41"/>
-      <c r="B170" s="38"/>
+      <c r="A170" s="46"/>
+      <c r="B170" s="43"/>
       <c r="C170" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="41"/>
-      <c r="B171" s="38"/>
+      <c r="A171" s="46"/>
+      <c r="B171" s="43"/>
       <c r="C171" s="22" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="41"/>
-      <c r="B172" s="38"/>
+      <c r="A172" s="46"/>
+      <c r="B172" s="43"/>
       <c r="C172" s="22" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="41"/>
-      <c r="B173" s="38"/>
+      <c r="A173" s="46"/>
+      <c r="B173" s="43"/>
       <c r="C173" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="41"/>
-      <c r="B174" s="38"/>
+      <c r="A174" s="46"/>
+      <c r="B174" s="43"/>
       <c r="C174" s="22" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="41"/>
-      <c r="B175" s="38"/>
+      <c r="A175" s="46"/>
+      <c r="B175" s="43"/>
       <c r="C175" s="22" t="s">
         <v>124</v>
       </c>
@@ -2955,57 +2955,57 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="41"/>
-      <c r="B176" s="38"/>
+      <c r="A176" s="46"/>
+      <c r="B176" s="43"/>
       <c r="C176" s="20" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="41"/>
-      <c r="B177" s="38"/>
+      <c r="A177" s="46"/>
+      <c r="B177" s="43"/>
       <c r="C177" s="20" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="41"/>
-      <c r="B178" s="38"/>
+      <c r="A178" s="46"/>
+      <c r="B178" s="43"/>
       <c r="C178" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="41"/>
-      <c r="B179" s="38"/>
+      <c r="A179" s="46"/>
+      <c r="B179" s="43"/>
       <c r="C179" s="22" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="41"/>
-      <c r="B180" s="38"/>
+      <c r="A180" s="46"/>
+      <c r="B180" s="43"/>
       <c r="C180" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="41"/>
-      <c r="B181" s="38"/>
+      <c r="A181" s="46"/>
+      <c r="B181" s="43"/>
       <c r="C181" s="22" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="41"/>
-      <c r="B182" s="39"/>
+      <c r="A182" s="46"/>
+      <c r="B182" s="44"/>
       <c r="C182" s="22" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="41"/>
-      <c r="B183" s="37" t="s">
+      <c r="A183" s="46"/>
+      <c r="B183" s="42" t="s">
         <v>282</v>
       </c>
       <c r="C183" s="20" t="s">
@@ -3013,45 +3013,45 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="41"/>
-      <c r="B184" s="38"/>
+      <c r="A184" s="46"/>
+      <c r="B184" s="43"/>
       <c r="C184" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="41"/>
-      <c r="B185" s="38"/>
+      <c r="A185" s="46"/>
+      <c r="B185" s="43"/>
       <c r="C185" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="41"/>
-      <c r="B186" s="38"/>
+      <c r="A186" s="46"/>
+      <c r="B186" s="43"/>
       <c r="C186" s="20" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="41"/>
-      <c r="B187" s="38"/>
+      <c r="A187" s="46"/>
+      <c r="B187" s="43"/>
       <c r="C187" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D187" s="12"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="41"/>
-      <c r="B188" s="38"/>
+      <c r="A188" s="46"/>
+      <c r="B188" s="43"/>
       <c r="C188" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D188" s="12"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="41"/>
-      <c r="B189" s="38"/>
+      <c r="A189" s="46"/>
+      <c r="B189" s="43"/>
       <c r="C189" s="20" t="s">
         <v>133</v>
       </c>
@@ -3060,99 +3060,99 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="41"/>
-      <c r="B190" s="38"/>
+      <c r="A190" s="46"/>
+      <c r="B190" s="43"/>
       <c r="C190" s="24" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="41"/>
-      <c r="B191" s="38"/>
+      <c r="A191" s="46"/>
+      <c r="B191" s="43"/>
       <c r="C191" s="24" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="41"/>
-      <c r="B192" s="38"/>
+      <c r="A192" s="46"/>
+      <c r="B192" s="43"/>
       <c r="C192" s="24" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="41"/>
-      <c r="B193" s="38"/>
+      <c r="A193" s="46"/>
+      <c r="B193" s="43"/>
       <c r="C193" s="13" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="41"/>
-      <c r="B194" s="38"/>
+      <c r="A194" s="46"/>
+      <c r="B194" s="43"/>
       <c r="C194" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="41"/>
-      <c r="B195" s="38"/>
+      <c r="A195" s="46"/>
+      <c r="B195" s="43"/>
       <c r="C195" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="41"/>
-      <c r="B196" s="38"/>
+      <c r="A196" s="46"/>
+      <c r="B196" s="43"/>
       <c r="C196" s="13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="41"/>
-      <c r="B197" s="38"/>
+      <c r="A197" s="46"/>
+      <c r="B197" s="43"/>
       <c r="C197" s="13" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="41"/>
-      <c r="B198" s="38"/>
+      <c r="A198" s="46"/>
+      <c r="B198" s="43"/>
       <c r="C198" s="25" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="41"/>
-      <c r="B199" s="38"/>
+      <c r="A199" s="46"/>
+      <c r="B199" s="43"/>
       <c r="C199" s="25" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="41"/>
-      <c r="B200" s="38"/>
+      <c r="A200" s="46"/>
+      <c r="B200" s="43"/>
       <c r="C200" s="26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="41"/>
-      <c r="B201" s="38"/>
+      <c r="A201" s="46"/>
+      <c r="B201" s="43"/>
       <c r="C201" s="26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="41"/>
-      <c r="B202" s="38"/>
+      <c r="A202" s="46"/>
+      <c r="B202" s="43"/>
       <c r="C202" s="20" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="41"/>
-      <c r="B203" s="38"/>
+      <c r="A203" s="46"/>
+      <c r="B203" s="43"/>
       <c r="C203" s="20" t="s">
         <v>151</v>
       </c>
@@ -3161,246 +3161,246 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="41"/>
-      <c r="B204" s="38"/>
+      <c r="A204" s="46"/>
+      <c r="B204" s="43"/>
       <c r="C204" s="32" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="41"/>
-      <c r="B205" s="38"/>
+      <c r="A205" s="46"/>
+      <c r="B205" s="43"/>
       <c r="C205" s="32" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="41"/>
-      <c r="B206" s="38"/>
+      <c r="A206" s="46"/>
+      <c r="B206" s="43"/>
       <c r="C206" s="32" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="41"/>
-      <c r="B207" s="38"/>
+      <c r="A207" s="46"/>
+      <c r="B207" s="43"/>
       <c r="C207" s="32" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="41"/>
-      <c r="B208" s="38"/>
+      <c r="A208" s="46"/>
+      <c r="B208" s="43"/>
       <c r="C208" s="32" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="41"/>
-      <c r="B209" s="38"/>
+      <c r="A209" s="46"/>
+      <c r="B209" s="43"/>
       <c r="C209" s="32" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="41"/>
-      <c r="B210" s="38"/>
+      <c r="A210" s="46"/>
+      <c r="B210" s="43"/>
       <c r="C210" s="32" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="41"/>
-      <c r="B211" s="38"/>
+      <c r="A211" s="46"/>
+      <c r="B211" s="43"/>
       <c r="C211" s="32" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="41"/>
-      <c r="B212" s="38"/>
+      <c r="A212" s="46"/>
+      <c r="B212" s="43"/>
       <c r="C212" s="32" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="41"/>
-      <c r="B213" s="38"/>
+      <c r="A213" s="46"/>
+      <c r="B213" s="43"/>
       <c r="C213" s="32" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="41"/>
-      <c r="B214" s="38"/>
+      <c r="A214" s="46"/>
+      <c r="B214" s="43"/>
       <c r="C214" s="32" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="41"/>
-      <c r="B215" s="38"/>
+      <c r="A215" s="46"/>
+      <c r="B215" s="43"/>
       <c r="C215" s="32" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="41"/>
-      <c r="B216" s="38"/>
+      <c r="A216" s="46"/>
+      <c r="B216" s="43"/>
       <c r="C216" s="32" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="41"/>
-      <c r="B217" s="38"/>
+      <c r="A217" s="46"/>
+      <c r="B217" s="43"/>
       <c r="C217" s="32" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="41"/>
-      <c r="B218" s="38"/>
+      <c r="A218" s="46"/>
+      <c r="B218" s="43"/>
       <c r="C218" s="32" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="41"/>
-      <c r="B219" s="38"/>
+      <c r="A219" s="46"/>
+      <c r="B219" s="43"/>
       <c r="C219" s="32" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="41"/>
-      <c r="B220" s="38"/>
+      <c r="A220" s="46"/>
+      <c r="B220" s="43"/>
       <c r="C220" s="32" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="41"/>
-      <c r="B221" s="38"/>
+      <c r="A221" s="46"/>
+      <c r="B221" s="43"/>
       <c r="C221" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="41"/>
-      <c r="B222" s="38"/>
+      <c r="A222" s="46"/>
+      <c r="B222" s="43"/>
       <c r="C222" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="41"/>
-      <c r="B223" s="38"/>
+      <c r="A223" s="46"/>
+      <c r="B223" s="43"/>
       <c r="C223" s="32" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="41"/>
-      <c r="B224" s="38"/>
+      <c r="A224" s="46"/>
+      <c r="B224" s="43"/>
       <c r="C224" s="32" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="41"/>
-      <c r="B225" s="38"/>
+      <c r="A225" s="46"/>
+      <c r="B225" s="43"/>
       <c r="C225" s="32" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="41"/>
-      <c r="B226" s="38"/>
+      <c r="A226" s="46"/>
+      <c r="B226" s="43"/>
       <c r="C226" s="32" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="41"/>
-      <c r="B227" s="38"/>
+      <c r="A227" s="46"/>
+      <c r="B227" s="43"/>
       <c r="C227" s="32" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="41"/>
-      <c r="B228" s="38"/>
+      <c r="A228" s="46"/>
+      <c r="B228" s="43"/>
       <c r="C228" s="32" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="41"/>
-      <c r="B229" s="38"/>
+      <c r="A229" s="46"/>
+      <c r="B229" s="43"/>
       <c r="C229" s="32" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="41"/>
-      <c r="B230" s="38"/>
+      <c r="A230" s="46"/>
+      <c r="B230" s="43"/>
       <c r="C230" s="32" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="41"/>
-      <c r="B231" s="38"/>
+      <c r="A231" s="46"/>
+      <c r="B231" s="43"/>
       <c r="C231" s="32" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="41"/>
-      <c r="B232" s="38"/>
+      <c r="A232" s="46"/>
+      <c r="B232" s="43"/>
       <c r="C232" s="20" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="41"/>
-      <c r="B233" s="38"/>
+      <c r="A233" s="46"/>
+      <c r="B233" s="43"/>
       <c r="C233" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="41"/>
-      <c r="B234" s="38"/>
+      <c r="A234" s="46"/>
+      <c r="B234" s="43"/>
       <c r="C234" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="41"/>
-      <c r="B235" s="38"/>
+      <c r="A235" s="46"/>
+      <c r="B235" s="43"/>
       <c r="C235" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="41"/>
-      <c r="B236" s="38"/>
+      <c r="A236" s="46"/>
+      <c r="B236" s="43"/>
       <c r="C236" s="20" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="41"/>
-      <c r="B237" s="39"/>
+      <c r="A237" s="46"/>
+      <c r="B237" s="44"/>
       <c r="C237" s="27" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="41"/>
-      <c r="B238" s="38" t="s">
+      <c r="A238" s="46"/>
+      <c r="B238" s="43" t="s">
         <v>283</v>
       </c>
       <c r="C238" s="20" t="s">
@@ -3411,22 +3411,22 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="41"/>
-      <c r="B239" s="38"/>
+      <c r="A239" s="46"/>
+      <c r="B239" s="43"/>
       <c r="C239" s="22" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="41"/>
-      <c r="B240" s="38"/>
+      <c r="A240" s="46"/>
+      <c r="B240" s="43"/>
       <c r="C240" s="22" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="41"/>
-      <c r="B241" s="38"/>
+      <c r="A241" s="46"/>
+      <c r="B241" s="43"/>
       <c r="C241" s="20" t="s">
         <v>121</v>
       </c>
@@ -3435,15 +3435,15 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="41"/>
-      <c r="B242" s="38"/>
+      <c r="A242" s="46"/>
+      <c r="B242" s="43"/>
       <c r="C242" s="22" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A243" s="41"/>
-      <c r="B243" s="38"/>
+      <c r="A243" s="46"/>
+      <c r="B243" s="43"/>
       <c r="C243" s="22" t="s">
         <v>230</v>
       </c>
@@ -3452,8 +3452,8 @@
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="41"/>
-      <c r="B244" s="38"/>
+      <c r="A244" s="46"/>
+      <c r="B244" s="43"/>
       <c r="C244" s="20" t="s">
         <v>125</v>
       </c>
@@ -3462,8 +3462,8 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="41"/>
-      <c r="B245" s="38"/>
+      <c r="A245" s="46"/>
+      <c r="B245" s="43"/>
       <c r="C245" s="20" t="s">
         <v>143</v>
       </c>
@@ -3472,8 +3472,8 @@
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="41"/>
-      <c r="B246" s="38"/>
+      <c r="A246" s="46"/>
+      <c r="B246" s="43"/>
       <c r="C246" s="20" t="s">
         <v>144</v>
       </c>
@@ -3482,40 +3482,40 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="41"/>
-      <c r="B247" s="38"/>
+      <c r="A247" s="46"/>
+      <c r="B247" s="43"/>
       <c r="C247" s="22" t="s">
         <v>145</v>
       </c>
       <c r="D247" s="12"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="41"/>
-      <c r="B248" s="38"/>
+      <c r="A248" s="46"/>
+      <c r="B248" s="43"/>
       <c r="C248" s="22" t="s">
         <v>146</v>
       </c>
       <c r="D248" s="12"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="41"/>
-      <c r="B249" s="38"/>
+      <c r="A249" s="46"/>
+      <c r="B249" s="43"/>
       <c r="C249" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D249" s="12"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="41"/>
-      <c r="B250" s="38"/>
+      <c r="A250" s="46"/>
+      <c r="B250" s="43"/>
       <c r="C250" s="22" t="s">
         <v>147</v>
       </c>
       <c r="D250" s="12"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="41"/>
-      <c r="B251" s="38"/>
+      <c r="A251" s="46"/>
+      <c r="B251" s="43"/>
       <c r="C251" s="20" t="s">
         <v>148</v>
       </c>
@@ -3524,64 +3524,64 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="41"/>
-      <c r="B252" s="38"/>
+      <c r="A252" s="46"/>
+      <c r="B252" s="43"/>
       <c r="C252" s="20" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="41"/>
-      <c r="B253" s="38"/>
+      <c r="A253" s="46"/>
+      <c r="B253" s="43"/>
       <c r="C253" s="20" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="41"/>
-      <c r="B254" s="38"/>
+      <c r="A254" s="46"/>
+      <c r="B254" s="43"/>
       <c r="C254" s="20" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="41"/>
-      <c r="B255" s="38"/>
+      <c r="A255" s="46"/>
+      <c r="B255" s="43"/>
       <c r="C255" s="20" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="41"/>
-      <c r="B256" s="38"/>
+      <c r="A256" s="46"/>
+      <c r="B256" s="43"/>
       <c r="C256" s="20" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="41"/>
-      <c r="B257" s="38"/>
+      <c r="A257" s="46"/>
+      <c r="B257" s="43"/>
       <c r="C257" s="20" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="41"/>
-      <c r="B258" s="38"/>
+      <c r="A258" s="46"/>
+      <c r="B258" s="43"/>
       <c r="C258" s="20" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="41"/>
-      <c r="B259" s="38"/>
+      <c r="A259" s="46"/>
+      <c r="B259" s="43"/>
       <c r="C259" s="20" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="42"/>
-      <c r="B260" s="39"/>
+      <c r="A260" s="47"/>
+      <c r="B260" s="44"/>
       <c r="C260" s="27" t="s">
         <v>166</v>
       </c>
@@ -3590,10 +3590,10 @@
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="40" t="s">
+      <c r="A261" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="B261" s="37" t="s">
+      <c r="B261" s="42" t="s">
         <v>295</v>
       </c>
       <c r="C261" s="29" t="s">
@@ -3601,64 +3601,64 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="41"/>
-      <c r="B262" s="38"/>
+      <c r="A262" s="46"/>
+      <c r="B262" s="43"/>
       <c r="C262" s="28" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="41"/>
-      <c r="B263" s="38"/>
+      <c r="A263" s="46"/>
+      <c r="B263" s="43"/>
       <c r="C263" s="28" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="41"/>
-      <c r="B264" s="38"/>
+      <c r="A264" s="46"/>
+      <c r="B264" s="43"/>
       <c r="C264" s="28" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="41"/>
-      <c r="B265" s="38"/>
+      <c r="A265" s="46"/>
+      <c r="B265" s="43"/>
       <c r="C265" s="28" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="41"/>
-      <c r="B266" s="38"/>
+      <c r="A266" s="46"/>
+      <c r="B266" s="43"/>
       <c r="C266" s="28" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="41"/>
-      <c r="B267" s="38"/>
+      <c r="A267" s="46"/>
+      <c r="B267" s="43"/>
       <c r="C267" s="28" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" s="41"/>
-      <c r="B268" s="38"/>
+      <c r="A268" s="46"/>
+      <c r="B268" s="43"/>
       <c r="C268" s="28" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="41"/>
-      <c r="B269" s="39"/>
+      <c r="A269" s="46"/>
+      <c r="B269" s="44"/>
       <c r="C269" s="36" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="41"/>
-      <c r="B270" s="38" t="s">
+      <c r="A270" s="46"/>
+      <c r="B270" s="43" t="s">
         <v>211</v>
       </c>
       <c r="C270" s="28" t="s">
@@ -3669,8 +3669,8 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="41"/>
-      <c r="B271" s="38"/>
+      <c r="A271" s="46"/>
+      <c r="B271" s="43"/>
       <c r="C271" s="28" t="s">
         <v>235</v>
       </c>
@@ -3679,28 +3679,28 @@
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="41"/>
-      <c r="B272" s="38"/>
+      <c r="A272" s="46"/>
+      <c r="B272" s="43"/>
       <c r="C272" s="28" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" s="41"/>
-      <c r="B273" s="38"/>
+      <c r="A273" s="46"/>
+      <c r="B273" s="43"/>
       <c r="C273" s="28" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" s="41"/>
-      <c r="B274" s="38"/>
+      <c r="A274" s="46"/>
+      <c r="B274" s="43"/>
       <c r="C274" s="30" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="40" t="s">
+      <c r="A275" s="45" t="s">
         <v>194</v>
       </c>
       <c r="B275" s="17"/>
@@ -3712,7 +3712,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" s="41"/>
+      <c r="A276" s="46"/>
       <c r="B276" s="16"/>
       <c r="C276" s="28" t="s">
         <v>196</v>
@@ -3722,7 +3722,7 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="41"/>
+      <c r="A277" s="46"/>
       <c r="B277" s="16"/>
       <c r="C277" s="28" t="s">
         <v>197</v>
@@ -3732,7 +3732,7 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="41"/>
+      <c r="A278" s="46"/>
       <c r="B278" s="16"/>
       <c r="C278" s="28" t="s">
         <v>198</v>
@@ -3742,14 +3742,14 @@
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="41"/>
+      <c r="A279" s="46"/>
       <c r="B279" s="16"/>
       <c r="C279" s="28" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="42"/>
+      <c r="A280" s="47"/>
       <c r="B280" s="18"/>
       <c r="C280" s="30" t="s">
         <v>200</v>
@@ -3759,7 +3759,7 @@
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="40" t="s">
+      <c r="A281" s="45" t="s">
         <v>201</v>
       </c>
       <c r="B281" s="17"/>
@@ -3768,28 +3768,28 @@
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="41"/>
+      <c r="A282" s="46"/>
       <c r="B282" s="16"/>
       <c r="C282" s="28" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="41"/>
+      <c r="A283" s="46"/>
       <c r="B283" s="16"/>
       <c r="C283" s="28" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="41"/>
+      <c r="A284" s="46"/>
       <c r="B284" s="16"/>
       <c r="C284" s="28" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="42"/>
+      <c r="A285" s="47"/>
       <c r="B285" s="18"/>
       <c r="C285" s="30" t="s">
         <v>206</v>
@@ -3798,24 +3798,24 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
+    <mergeCell ref="B261:B269"/>
+    <mergeCell ref="B270:B274"/>
+    <mergeCell ref="B112:B121"/>
+    <mergeCell ref="B141:B182"/>
+    <mergeCell ref="B183:B237"/>
+    <mergeCell ref="B238:B260"/>
+    <mergeCell ref="B59:B98"/>
+    <mergeCell ref="B99:B111"/>
+    <mergeCell ref="B122:B131"/>
+    <mergeCell ref="B132:B140"/>
+    <mergeCell ref="B5:B26"/>
+    <mergeCell ref="B27:B58"/>
     <mergeCell ref="A5:A121"/>
     <mergeCell ref="A261:A274"/>
     <mergeCell ref="A275:A280"/>
     <mergeCell ref="A281:A285"/>
     <mergeCell ref="A122:A140"/>
     <mergeCell ref="A141:A260"/>
-    <mergeCell ref="B59:B98"/>
-    <mergeCell ref="B99:B111"/>
-    <mergeCell ref="B122:B131"/>
-    <mergeCell ref="B132:B140"/>
-    <mergeCell ref="B5:B26"/>
-    <mergeCell ref="B27:B58"/>
-    <mergeCell ref="B261:B269"/>
-    <mergeCell ref="B270:B274"/>
-    <mergeCell ref="B112:B121"/>
-    <mergeCell ref="B141:B182"/>
-    <mergeCell ref="B183:B237"/>
-    <mergeCell ref="B238:B260"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3842,39 +3842,39 @@
       <c r="B2" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="G2" s="43" t="s">
+      <c r="E2" s="48"/>
+      <c r="G2" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="J2" s="43" t="s">
+      <c r="H2" s="48"/>
+      <c r="J2" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="43"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>286</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="37" t="s">
         <v>297</v>
       </c>
     </row>
@@ -3882,20 +3882,20 @@
       <c r="B4" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="38">
         <v>1</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="38">
         <v>1</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45" t="s">
+      <c r="J4" s="38"/>
+      <c r="K4" s="38" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3903,20 +3903,20 @@
       <c r="B5" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="38">
         <v>2</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="38">
         <v>2</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45" t="s">
+      <c r="J5" s="38"/>
+      <c r="K5" s="38" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3924,14 +3924,14 @@
       <c r="B6" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="39">
         <v>3</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45" t="s">
+      <c r="J6" s="38"/>
+      <c r="K6" s="38" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3939,10 +3939,10 @@
       <c r="B7" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="38">
         <v>4</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="40" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3950,48 +3950,48 @@
       <c r="D8" s="1"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="G10" s="43" t="s">
+      <c r="E10" s="48"/>
+      <c r="G10" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="J10" s="43" t="s">
+      <c r="H10" s="48"/>
+      <c r="J10" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="K10" s="43"/>
+      <c r="K10" s="48"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="K11" s="44" t="s">
+      <c r="K11" s="37" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="45"/>
-      <c r="E12" s="45" t="s">
+      <c r="D12" s="38"/>
+      <c r="E12" s="38" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="45"/>
-      <c r="E13" s="45" t="s">
+      <c r="D13" s="38"/>
+      <c r="E13" s="38" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4020,16 +4020,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="41" t="s">
         <v>300</v>
       </c>
     </row>

--- a/clientdata/Goat FPO QR_18112017.xlsx
+++ b/clientdata/Goat FPO QR_18112017.xlsx
@@ -1666,7 +1666,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1676,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106:C107"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3798,24 +3798,24 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
+    <mergeCell ref="A5:A121"/>
+    <mergeCell ref="A261:A274"/>
+    <mergeCell ref="A275:A280"/>
+    <mergeCell ref="A281:A285"/>
+    <mergeCell ref="A122:A140"/>
+    <mergeCell ref="A141:A260"/>
+    <mergeCell ref="B59:B98"/>
+    <mergeCell ref="B99:B111"/>
+    <mergeCell ref="B122:B131"/>
+    <mergeCell ref="B132:B140"/>
+    <mergeCell ref="B5:B26"/>
+    <mergeCell ref="B27:B58"/>
     <mergeCell ref="B261:B269"/>
     <mergeCell ref="B270:B274"/>
     <mergeCell ref="B112:B121"/>
     <mergeCell ref="B141:B182"/>
     <mergeCell ref="B183:B237"/>
     <mergeCell ref="B238:B260"/>
-    <mergeCell ref="B59:B98"/>
-    <mergeCell ref="B99:B111"/>
-    <mergeCell ref="B122:B131"/>
-    <mergeCell ref="B132:B140"/>
-    <mergeCell ref="B5:B26"/>
-    <mergeCell ref="B27:B58"/>
-    <mergeCell ref="A5:A121"/>
-    <mergeCell ref="A261:A274"/>
-    <mergeCell ref="A275:A280"/>
-    <mergeCell ref="A281:A285"/>
-    <mergeCell ref="A122:A140"/>
-    <mergeCell ref="A141:A260"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/clientdata/Goat FPO QR_18112017.xlsx
+++ b/clientdata/Goat FPO QR_18112017.xlsx
@@ -1676,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A266" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="C273" sqref="C273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/clientdata/Goat FPO QR_18112017.xlsx
+++ b/clientdata/Goat FPO QR_18112017.xlsx
@@ -1666,7 +1666,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1676,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C273" sqref="C273"/>
+    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="C249" sqref="C249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3798,24 +3798,24 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
+    <mergeCell ref="B261:B269"/>
+    <mergeCell ref="B270:B274"/>
+    <mergeCell ref="B112:B121"/>
+    <mergeCell ref="B141:B182"/>
+    <mergeCell ref="B183:B237"/>
+    <mergeCell ref="B238:B260"/>
+    <mergeCell ref="B59:B98"/>
+    <mergeCell ref="B99:B111"/>
+    <mergeCell ref="B122:B131"/>
+    <mergeCell ref="B132:B140"/>
+    <mergeCell ref="B5:B26"/>
+    <mergeCell ref="B27:B58"/>
     <mergeCell ref="A5:A121"/>
     <mergeCell ref="A261:A274"/>
     <mergeCell ref="A275:A280"/>
     <mergeCell ref="A281:A285"/>
     <mergeCell ref="A122:A140"/>
     <mergeCell ref="A141:A260"/>
-    <mergeCell ref="B59:B98"/>
-    <mergeCell ref="B99:B111"/>
-    <mergeCell ref="B122:B131"/>
-    <mergeCell ref="B132:B140"/>
-    <mergeCell ref="B5:B26"/>
-    <mergeCell ref="B27:B58"/>
-    <mergeCell ref="B261:B269"/>
-    <mergeCell ref="B270:B274"/>
-    <mergeCell ref="B112:B121"/>
-    <mergeCell ref="B141:B182"/>
-    <mergeCell ref="B183:B237"/>
-    <mergeCell ref="B238:B260"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/clientdata/Goat FPO QR_18112017.xlsx
+++ b/clientdata/Goat FPO QR_18112017.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="304">
   <si>
     <t>Survey Collector Name</t>
   </si>
@@ -974,6 +974,15 @@
   </si>
   <si>
     <t>Fields</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1675,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1676,8 +1685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D259" sqref="D259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3529,6 +3538,9 @@
       <c r="C252" s="20" t="s">
         <v>158</v>
       </c>
+      <c r="D252" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="46"/>
@@ -3550,6 +3562,9 @@
       <c r="C255" s="20" t="s">
         <v>161</v>
       </c>
+      <c r="D255" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="46"/>
@@ -3578,6 +3593,9 @@
       <c r="C259" s="20" t="s">
         <v>165</v>
       </c>
+      <c r="D259" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="47"/>
@@ -3798,24 +3816,24 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
+    <mergeCell ref="B261:B269"/>
+    <mergeCell ref="B270:B274"/>
+    <mergeCell ref="B112:B121"/>
+    <mergeCell ref="B141:B182"/>
+    <mergeCell ref="B183:B237"/>
+    <mergeCell ref="B238:B260"/>
+    <mergeCell ref="B59:B98"/>
+    <mergeCell ref="B99:B111"/>
+    <mergeCell ref="B122:B131"/>
+    <mergeCell ref="B132:B140"/>
+    <mergeCell ref="B5:B26"/>
+    <mergeCell ref="B27:B58"/>
     <mergeCell ref="A5:A121"/>
     <mergeCell ref="A261:A274"/>
     <mergeCell ref="A275:A280"/>
     <mergeCell ref="A281:A285"/>
     <mergeCell ref="A122:A140"/>
     <mergeCell ref="A141:A260"/>
-    <mergeCell ref="B59:B98"/>
-    <mergeCell ref="B99:B111"/>
-    <mergeCell ref="B122:B131"/>
-    <mergeCell ref="B132:B140"/>
-    <mergeCell ref="B5:B26"/>
-    <mergeCell ref="B27:B58"/>
-    <mergeCell ref="B261:B269"/>
-    <mergeCell ref="B270:B274"/>
-    <mergeCell ref="B112:B121"/>
-    <mergeCell ref="B141:B182"/>
-    <mergeCell ref="B183:B237"/>
-    <mergeCell ref="B238:B260"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
